--- a/20170301-charter_enrollment/builds/development/data/maindata.xlsx
+++ b/20170301-charter_enrollment/builds/development/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="320" windowWidth="29860" windowHeight="16960" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="780" windowWidth="29860" windowHeight="16960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
     <sheet name="summary" sheetId="5" r:id="rId2"/>
     <sheet name="source" sheetId="9" r:id="rId3"/>
+    <sheet name="layout" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$M$1626</definedName>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11630" uniqueCount="3637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11653" uniqueCount="3648">
   <si>
     <t>schoolid</t>
   </si>
@@ -11000,13 +11001,46 @@
   </si>
   <si>
     <t>Summary of key Minnesota charter enrollment statistics</t>
+  </si>
+  <si>
+    <t>School district name</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t>Type of school</t>
+  </si>
+  <si>
+    <t>Location of school</t>
+  </si>
+  <si>
+    <t>Grades taught at school</t>
+  </si>
+  <si>
+    <t>The school's 2012-2013 enrollment</t>
+  </si>
+  <si>
+    <t>The school's 2013-2014 enrollment</t>
+  </si>
+  <si>
+    <t>The school's 2014-2015 enrollment</t>
+  </si>
+  <si>
+    <t>The school's 2015-2016 enrollment</t>
+  </si>
+  <si>
+    <t>The school's 2016-2017 enrollment</t>
+  </si>
+  <si>
+    <t>Enrollment percent change from 2012 to 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11045,6 +11079,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -11078,7 +11119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11113,8 +11154,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -11126,8 +11175,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -11144,6 +11194,10 @@
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -11160,6 +11214,10 @@
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -11174,11 +11232,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="FreelunchAnalysis1617" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="FreelunchAnalysis1617_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="FreelunchAnalysis1617_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="FreelunchAnalysis1617" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11471,7 +11529,7 @@
   <dimension ref="A1:M1626"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -78169,7 +78227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:F22"/>
     </sheetView>
   </sheetViews>
@@ -79018,8 +79076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -79079,4 +79137,118 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>